--- a/data_year/zb/社会服务/社会福利企业.xlsx
+++ b/data_year/zb/社会服务/社会福利企业.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,254 +453,94 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>99.03</v>
+        <v>150.8</v>
       </c>
       <c r="C2" t="n">
-        <v>40670</v>
+        <v>22226</v>
       </c>
       <c r="D2" t="n">
-        <v>72.55</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>119.51961</v>
+        <v>140.1</v>
       </c>
       <c r="C3" t="n">
-        <v>37980</v>
+        <v>21507</v>
       </c>
       <c r="D3" t="n">
-        <v>69.86499999999999</v>
+        <v>62.8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>148.3</v>
+        <v>118.4</v>
       </c>
       <c r="C4" t="n">
-        <v>35758</v>
+        <v>20205</v>
       </c>
       <c r="D4" t="n">
-        <v>68.3</v>
+        <v>59.7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>189.9</v>
+        <v>106.94</v>
       </c>
       <c r="C5" t="n">
-        <v>33976</v>
+        <v>18227</v>
       </c>
       <c r="D5" t="n">
-        <v>67.90000000000001</v>
+        <v>53.9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>219</v>
+        <v>95.19062</v>
       </c>
       <c r="C6" t="n">
-        <v>32410</v>
+        <v>16389</v>
       </c>
       <c r="D6" t="n">
-        <v>66.2</v>
+        <v>47.9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>225.2</v>
-      </c>
+          <t>2015年</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>31211</v>
+        <v>14585</v>
       </c>
       <c r="D7" t="n">
-        <v>63.7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>2006年</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>237.8</v>
-      </c>
-      <c r="C8" t="n">
-        <v>30199</v>
-      </c>
-      <c r="D8" t="n">
-        <v>55.9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>2007年</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>169.3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>24974</v>
-      </c>
-      <c r="D9" t="n">
-        <v>56.3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>2008年</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>119.2</v>
-      </c>
-      <c r="C10" t="n">
-        <v>23780</v>
-      </c>
-      <c r="D10" t="n">
-        <v>61.9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>125.4</v>
-      </c>
-      <c r="C11" t="n">
-        <v>22783</v>
-      </c>
-      <c r="D11" t="n">
-        <v>62.7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>150.8</v>
-      </c>
-      <c r="C12" t="n">
-        <v>22226</v>
-      </c>
-      <c r="D12" t="n">
-        <v>62.5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>140.1</v>
-      </c>
-      <c r="C13" t="n">
-        <v>21507</v>
-      </c>
-      <c r="D13" t="n">
-        <v>62.8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>118.4</v>
-      </c>
-      <c r="C14" t="n">
-        <v>20205</v>
-      </c>
-      <c r="D14" t="n">
-        <v>59.7</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>106.94</v>
-      </c>
-      <c r="C15" t="n">
-        <v>18227</v>
-      </c>
-      <c r="D15" t="n">
-        <v>53.9</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>95.19062</v>
-      </c>
-      <c r="C16" t="n">
-        <v>16389</v>
-      </c>
-      <c r="D16" t="n">
-        <v>47.9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="n">
-        <v>14585</v>
-      </c>
-      <c r="D17" t="n">
         <v>42.9</v>
       </c>
     </row>
